--- a/tratado.xlsx
+++ b/tratado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH135"/>
+  <dimension ref="A1:AI135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,6 +597,11 @@
       <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Pont_total</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>old_week</t>
         </is>
       </c>
     </row>
@@ -697,6 +702,9 @@
       <c r="AH2" t="n">
         <v>40</v>
       </c>
+      <c r="AI2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -795,6 +803,9 @@
       <c r="AH3" t="n">
         <v>20</v>
       </c>
+      <c r="AI3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -893,6 +904,9 @@
       <c r="AH4" t="n">
         <v>40</v>
       </c>
+      <c r="AI4" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -991,6 +1005,9 @@
       <c r="AH5" t="n">
         <v>60</v>
       </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1089,6 +1106,9 @@
       <c r="AH6" t="n">
         <v>20</v>
       </c>
+      <c r="AI6" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1187,6 +1207,9 @@
       <c r="AH7" t="n">
         <v>40</v>
       </c>
+      <c r="AI7" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1285,6 +1308,9 @@
       <c r="AH8" t="n">
         <v>20</v>
       </c>
+      <c r="AI8" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1383,6 +1409,9 @@
       <c r="AH9" t="n">
         <v>20</v>
       </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1481,6 +1510,9 @@
       <c r="AH10" t="n">
         <v>60</v>
       </c>
+      <c r="AI10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1579,6 +1611,9 @@
       <c r="AH11" t="n">
         <v>20</v>
       </c>
+      <c r="AI11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1677,6 +1712,9 @@
       <c r="AH12" t="n">
         <v>20</v>
       </c>
+      <c r="AI12" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1775,6 +1813,9 @@
       <c r="AH13" t="n">
         <v>40</v>
       </c>
+      <c r="AI13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1873,6 +1914,9 @@
       <c r="AH14" t="n">
         <v>20</v>
       </c>
+      <c r="AI14" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1971,6 +2015,9 @@
       <c r="AH15" t="n">
         <v>60</v>
       </c>
+      <c r="AI15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2069,6 +2116,9 @@
       <c r="AH16" t="n">
         <v>60</v>
       </c>
+      <c r="AI16" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2167,6 +2217,9 @@
       <c r="AH17" t="n">
         <v>60</v>
       </c>
+      <c r="AI17" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2265,6 +2318,9 @@
       <c r="AH18" t="n">
         <v>60</v>
       </c>
+      <c r="AI18" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2363,6 +2419,9 @@
       <c r="AH19" t="n">
         <v>60</v>
       </c>
+      <c r="AI19" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2461,6 +2520,9 @@
       <c r="AH20" t="n">
         <v>60</v>
       </c>
+      <c r="AI20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2559,6 +2621,9 @@
       <c r="AH21" t="n">
         <v>20</v>
       </c>
+      <c r="AI21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2657,6 +2722,9 @@
       <c r="AH22" t="n">
         <v>60</v>
       </c>
+      <c r="AI22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2755,6 +2823,9 @@
       <c r="AH23" t="n">
         <v>20</v>
       </c>
+      <c r="AI23" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2853,6 +2924,9 @@
       <c r="AH24" t="n">
         <v>20</v>
       </c>
+      <c r="AI24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2951,6 +3025,9 @@
       <c r="AH25" t="n">
         <v>20</v>
       </c>
+      <c r="AI25" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3049,6 +3126,9 @@
       <c r="AH26" t="n">
         <v>40</v>
       </c>
+      <c r="AI26" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3147,6 +3227,9 @@
       <c r="AH27" t="n">
         <v>40</v>
       </c>
+      <c r="AI27" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3245,6 +3328,9 @@
       <c r="AH28" t="n">
         <v>40</v>
       </c>
+      <c r="AI28" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3343,6 +3429,9 @@
       <c r="AH29" t="n">
         <v>20</v>
       </c>
+      <c r="AI29" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3441,6 +3530,9 @@
       <c r="AH30" t="n">
         <v>20</v>
       </c>
+      <c r="AI30" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3539,6 +3631,9 @@
       <c r="AH31" t="n">
         <v>20</v>
       </c>
+      <c r="AI31" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3637,6 +3732,9 @@
       <c r="AH32" t="n">
         <v>20</v>
       </c>
+      <c r="AI32" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3735,6 +3833,9 @@
       <c r="AH33" t="n">
         <v>20</v>
       </c>
+      <c r="AI33" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3833,6 +3934,9 @@
       <c r="AH34" t="n">
         <v>60</v>
       </c>
+      <c r="AI34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3931,6 +4035,9 @@
       <c r="AH35" t="n">
         <v>20</v>
       </c>
+      <c r="AI35" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4029,6 +4136,9 @@
       <c r="AH36" t="n">
         <v>20</v>
       </c>
+      <c r="AI36" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4127,6 +4237,9 @@
       <c r="AH37" t="n">
         <v>20</v>
       </c>
+      <c r="AI37" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4225,6 +4338,9 @@
       <c r="AH38" t="n">
         <v>40</v>
       </c>
+      <c r="AI38" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4323,6 +4439,9 @@
       <c r="AH39" t="n">
         <v>20</v>
       </c>
+      <c r="AI39" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4421,6 +4540,9 @@
       <c r="AH40" t="n">
         <v>20</v>
       </c>
+      <c r="AI40" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4519,6 +4641,9 @@
       <c r="AH41" t="n">
         <v>20</v>
       </c>
+      <c r="AI41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4617,6 +4742,9 @@
       <c r="AH42" t="n">
         <v>40</v>
       </c>
+      <c r="AI42" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4715,6 +4843,9 @@
       <c r="AH43" t="n">
         <v>20</v>
       </c>
+      <c r="AI43" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4813,6 +4944,9 @@
       <c r="AH44" t="n">
         <v>60</v>
       </c>
+      <c r="AI44" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4911,6 +5045,9 @@
       <c r="AH45" t="n">
         <v>20</v>
       </c>
+      <c r="AI45" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5009,6 +5146,9 @@
       <c r="AH46" t="n">
         <v>20</v>
       </c>
+      <c r="AI46" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5107,6 +5247,9 @@
       <c r="AH47" t="n">
         <v>20</v>
       </c>
+      <c r="AI47" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5205,6 +5348,9 @@
       <c r="AH48" t="n">
         <v>20</v>
       </c>
+      <c r="AI48" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5303,6 +5449,9 @@
       <c r="AH49" t="n">
         <v>20</v>
       </c>
+      <c r="AI49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5401,6 +5550,9 @@
       <c r="AH50" t="n">
         <v>20</v>
       </c>
+      <c r="AI50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5499,6 +5651,9 @@
       <c r="AH51" t="n">
         <v>40</v>
       </c>
+      <c r="AI51" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5597,6 +5752,9 @@
       <c r="AH52" t="n">
         <v>20</v>
       </c>
+      <c r="AI52" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5695,6 +5853,9 @@
       <c r="AH53" t="n">
         <v>60</v>
       </c>
+      <c r="AI53" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5793,6 +5954,9 @@
       <c r="AH54" t="n">
         <v>40</v>
       </c>
+      <c r="AI54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5891,6 +6055,9 @@
       <c r="AH55" t="n">
         <v>60</v>
       </c>
+      <c r="AI55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5989,6 +6156,9 @@
       <c r="AH56" t="n">
         <v>60</v>
       </c>
+      <c r="AI56" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6087,6 +6257,9 @@
       <c r="AH57" t="n">
         <v>60</v>
       </c>
+      <c r="AI57" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6185,6 +6358,9 @@
       <c r="AH58" t="n">
         <v>20</v>
       </c>
+      <c r="AI58" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6283,6 +6459,9 @@
       <c r="AH59" t="n">
         <v>20</v>
       </c>
+      <c r="AI59" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6381,6 +6560,9 @@
       <c r="AH60" t="n">
         <v>20</v>
       </c>
+      <c r="AI60" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6479,6 +6661,9 @@
       <c r="AH61" t="n">
         <v>20</v>
       </c>
+      <c r="AI61" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6577,6 +6762,9 @@
       <c r="AH62" t="n">
         <v>20</v>
       </c>
+      <c r="AI62" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6675,6 +6863,9 @@
       <c r="AH63" t="n">
         <v>20</v>
       </c>
+      <c r="AI63" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6773,6 +6964,9 @@
       <c r="AH64" t="n">
         <v>20</v>
       </c>
+      <c r="AI64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6871,6 +7065,9 @@
       <c r="AH65" t="n">
         <v>20</v>
       </c>
+      <c r="AI65" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6969,6 +7166,9 @@
       <c r="AH66" t="n">
         <v>20</v>
       </c>
+      <c r="AI66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7067,6 +7267,9 @@
       <c r="AH67" t="n">
         <v>20</v>
       </c>
+      <c r="AI67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7165,6 +7368,9 @@
       <c r="AH68" t="n">
         <v>20</v>
       </c>
+      <c r="AI68" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7263,6 +7469,9 @@
       <c r="AH69" t="n">
         <v>40</v>
       </c>
+      <c r="AI69" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7361,6 +7570,9 @@
       <c r="AH70" t="n">
         <v>20</v>
       </c>
+      <c r="AI70" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7459,6 +7671,9 @@
       <c r="AH71" t="n">
         <v>40</v>
       </c>
+      <c r="AI71" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7557,6 +7772,9 @@
       <c r="AH72" t="n">
         <v>40</v>
       </c>
+      <c r="AI72" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7655,6 +7873,9 @@
       <c r="AH73" t="n">
         <v>60</v>
       </c>
+      <c r="AI73" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7753,6 +7974,9 @@
       <c r="AH74" t="n">
         <v>60</v>
       </c>
+      <c r="AI74" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7851,6 +8075,9 @@
       <c r="AH75" t="n">
         <v>20</v>
       </c>
+      <c r="AI75" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7949,6 +8176,9 @@
       <c r="AH76" t="n">
         <v>20</v>
       </c>
+      <c r="AI76" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8047,6 +8277,9 @@
       <c r="AH77" t="n">
         <v>20</v>
       </c>
+      <c r="AI77" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8145,6 +8378,9 @@
       <c r="AH78" t="n">
         <v>20</v>
       </c>
+      <c r="AI78" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8243,6 +8479,9 @@
       <c r="AH79" t="n">
         <v>20</v>
       </c>
+      <c r="AI79" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8341,6 +8580,9 @@
       <c r="AH80" t="n">
         <v>20</v>
       </c>
+      <c r="AI80" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8439,6 +8681,9 @@
       <c r="AH81" t="n">
         <v>60</v>
       </c>
+      <c r="AI81" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8537,6 +8782,9 @@
       <c r="AH82" t="n">
         <v>20</v>
       </c>
+      <c r="AI82" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8635,6 +8883,9 @@
       <c r="AH83" t="n">
         <v>20</v>
       </c>
+      <c r="AI83" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8733,6 +8984,9 @@
       <c r="AH84" t="n">
         <v>20</v>
       </c>
+      <c r="AI84" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8831,6 +9085,9 @@
       <c r="AH85" t="n">
         <v>20</v>
       </c>
+      <c r="AI85" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -8929,6 +9186,9 @@
       <c r="AH86" t="n">
         <v>20</v>
       </c>
+      <c r="AI86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9027,6 +9287,9 @@
       <c r="AH87" t="n">
         <v>20</v>
       </c>
+      <c r="AI87" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9125,6 +9388,9 @@
       <c r="AH88" t="n">
         <v>40</v>
       </c>
+      <c r="AI88" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9223,6 +9489,9 @@
       <c r="AH89" t="n">
         <v>20</v>
       </c>
+      <c r="AI89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9321,6 +9590,9 @@
       <c r="AH90" t="n">
         <v>20</v>
       </c>
+      <c r="AI90" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9419,6 +9691,9 @@
       <c r="AH91" t="n">
         <v>20</v>
       </c>
+      <c r="AI91" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9517,6 +9792,9 @@
       <c r="AH92" t="n">
         <v>60</v>
       </c>
+      <c r="AI92" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9615,6 +9893,9 @@
       <c r="AH93" t="n">
         <v>60</v>
       </c>
+      <c r="AI93" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9713,6 +9994,9 @@
       <c r="AH94" t="n">
         <v>60</v>
       </c>
+      <c r="AI94" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -9811,6 +10095,9 @@
       <c r="AH95" t="n">
         <v>20</v>
       </c>
+      <c r="AI95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -9909,6 +10196,9 @@
       <c r="AH96" t="n">
         <v>20</v>
       </c>
+      <c r="AI96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10007,6 +10297,9 @@
       <c r="AH97" t="n">
         <v>20</v>
       </c>
+      <c r="AI97" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10105,6 +10398,9 @@
       <c r="AH98" t="n">
         <v>20</v>
       </c>
+      <c r="AI98" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10203,6 +10499,9 @@
       <c r="AH99" t="n">
         <v>20</v>
       </c>
+      <c r="AI99" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -10301,6 +10600,9 @@
       <c r="AH100" t="n">
         <v>20</v>
       </c>
+      <c r="AI100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10399,6 +10701,9 @@
       <c r="AH101" t="n">
         <v>60</v>
       </c>
+      <c r="AI101" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10497,6 +10802,9 @@
       <c r="AH102" t="n">
         <v>20</v>
       </c>
+      <c r="AI102" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -10595,6 +10903,9 @@
       <c r="AH103" t="n">
         <v>60</v>
       </c>
+      <c r="AI103" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10693,6 +11004,9 @@
       <c r="AH104" t="n">
         <v>60</v>
       </c>
+      <c r="AI104" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -10791,6 +11105,9 @@
       <c r="AH105" t="n">
         <v>20</v>
       </c>
+      <c r="AI105" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -10889,6 +11206,9 @@
       <c r="AH106" t="n">
         <v>20</v>
       </c>
+      <c r="AI106" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -10987,6 +11307,9 @@
       <c r="AH107" t="n">
         <v>20</v>
       </c>
+      <c r="AI107" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -11085,6 +11408,9 @@
       <c r="AH108" t="n">
         <v>20</v>
       </c>
+      <c r="AI108" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -11183,6 +11509,9 @@
       <c r="AH109" t="n">
         <v>20</v>
       </c>
+      <c r="AI109" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -11281,6 +11610,9 @@
       <c r="AH110" t="n">
         <v>60</v>
       </c>
+      <c r="AI110" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -11379,6 +11711,9 @@
       <c r="AH111" t="n">
         <v>20</v>
       </c>
+      <c r="AI111" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -11477,6 +11812,9 @@
       <c r="AH112" t="n">
         <v>20</v>
       </c>
+      <c r="AI112" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -11575,6 +11913,9 @@
       <c r="AH113" t="n">
         <v>40</v>
       </c>
+      <c r="AI113" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -11673,6 +12014,9 @@
       <c r="AH114" t="n">
         <v>20</v>
       </c>
+      <c r="AI114" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -11771,6 +12115,9 @@
       <c r="AH115" t="n">
         <v>40</v>
       </c>
+      <c r="AI115" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -11869,6 +12216,9 @@
       <c r="AH116" t="n">
         <v>40</v>
       </c>
+      <c r="AI116" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -11967,6 +12317,9 @@
       <c r="AH117" t="n">
         <v>20</v>
       </c>
+      <c r="AI117" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -12065,6 +12418,9 @@
       <c r="AH118" t="n">
         <v>40</v>
       </c>
+      <c r="AI118" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -12163,6 +12519,9 @@
       <c r="AH119" t="n">
         <v>40</v>
       </c>
+      <c r="AI119" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -12261,6 +12620,9 @@
       <c r="AH120" t="n">
         <v>20</v>
       </c>
+      <c r="AI120" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -12359,6 +12721,9 @@
       <c r="AH121" t="n">
         <v>60</v>
       </c>
+      <c r="AI121" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -12457,6 +12822,9 @@
       <c r="AH122" t="n">
         <v>20</v>
       </c>
+      <c r="AI122" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -12555,6 +12923,9 @@
       <c r="AH123" t="n">
         <v>40</v>
       </c>
+      <c r="AI123" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -12653,6 +13024,9 @@
       <c r="AH124" t="n">
         <v>20</v>
       </c>
+      <c r="AI124" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -12751,6 +13125,9 @@
       <c r="AH125" t="n">
         <v>20</v>
       </c>
+      <c r="AI125" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -12849,6 +13226,9 @@
       <c r="AH126" t="n">
         <v>60</v>
       </c>
+      <c r="AI126" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -12947,6 +13327,9 @@
       <c r="AH127" t="n">
         <v>20</v>
       </c>
+      <c r="AI127" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -13045,6 +13428,9 @@
       <c r="AH128" t="n">
         <v>40</v>
       </c>
+      <c r="AI128" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -13143,6 +13529,9 @@
       <c r="AH129" t="n">
         <v>60</v>
       </c>
+      <c r="AI129" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -13241,6 +13630,9 @@
       <c r="AH130" t="n">
         <v>20</v>
       </c>
+      <c r="AI130" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -13339,6 +13731,9 @@
       <c r="AH131" t="n">
         <v>20</v>
       </c>
+      <c r="AI131" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -13437,6 +13832,9 @@
       <c r="AH132" t="n">
         <v>20</v>
       </c>
+      <c r="AI132" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -13535,6 +13933,9 @@
       <c r="AH133" t="n">
         <v>40</v>
       </c>
+      <c r="AI133" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -13633,6 +14034,9 @@
       <c r="AH134" t="n">
         <v>20</v>
       </c>
+      <c r="AI134" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -13731,6 +14135,9 @@
       <c r="AH135" t="n">
         <v>60</v>
       </c>
+      <c r="AI135" t="n">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
